--- a/PerformanceAnalysis/schoolhistory2018.xlsx
+++ b/PerformanceAnalysis/schoolhistory2018.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F12A9A16-8204-47D7-ACA6-B8E042ABE607}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D6C07-39E9-47DD-BC27-E55B9AD18E0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="930" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economicsMacro" sheetId="1" r:id="rId1"/>
@@ -12414,8 +12414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3EC38B-9137-4A83-8A80-3653B751E4DA}">
   <dimension ref="A1:J268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15312,7 +15312,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H109" s="2">
         <v>22</v>
@@ -19581,7 +19581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AF0956-071A-4E8A-9E57-3D8C40C91D8B}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
